--- a/Area de Proceso PPQA/HGQA/HGQA_V0.1_2016_JUNIO.xlsx
+++ b/Area de Proceso PPQA/HGQA/HGQA_V0.1_2016_JUNIO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDS1\DEV-SOFT\Area de Proceso PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PDS1\DEV-SOFT\Area de Proceso PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -2999,7 +2999,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3210,9 +3209,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3270,7 +3267,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3376,7 +3372,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3739,9 +3734,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3762,9 +3755,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3785,9 +3776,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3808,9 +3797,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3846,9 +3833,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4165,7 +4150,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4215,11 +4199,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="268826320"/>
-        <c:axId val="268826880"/>
+        <c:axId val="170816048"/>
+        <c:axId val="170816440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="268826320"/>
+        <c:axId val="170816048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4259,7 +4243,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268826880"/>
+        <c:crossAx val="170816440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4269,7 +4253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268826880"/>
+        <c:axId val="170816440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,7 +4301,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268826320"/>
+        <c:crossAx val="170816048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4331,7 +4315,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4437,7 +4420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4738,12 +4720,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="249481680"/>
-        <c:axId val="329051056"/>
+        <c:axId val="170817224"/>
+        <c:axId val="170817616"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="249481680"/>
+        <c:axId val="170817224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4772,7 +4754,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4833,7 +4814,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329051056"/>
+        <c:crossAx val="170817616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4843,7 +4824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329051056"/>
+        <c:axId val="170817616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4948,7 +4929,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249481680"/>
+        <c:crossAx val="170817224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4962,7 +4943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9821,8 +9801,8 @@
   </sheetPr>
   <dimension ref="A3:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B49"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -11806,11 +11786,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:D41"/>
+      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -13917,7 +13897,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
